--- a/biology/Zoologie/Acanthodiaptomus/Acanthodiaptomus.xlsx
+++ b/biology/Zoologie/Acanthodiaptomus/Acanthodiaptomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthodiaptomus est un genre de copépodes de la famille des Diaptomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (23 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (23 février 2024) :
 Acanthodiaptomus pacificus (Burckhardt, 1913)
 Acanthodiaptomus tibetanus (Daday, 1907)
 Acanthodiaptomus denticornis (Wierzejski, 1887)</t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Acanthodiaptomus Kiefer (d), 1932[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Acanthodiaptomus Kiefer (d), 1932.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) F. Kiefer, « Versuch eines Systems der altweltlichen Diaptomiden (Copepoda Calanoida) », Zoologischer Anzeiger, vol. 100, nos 7-8,‎ 15 octobre 1932, p. 213-220 (ISSN 0044-5231, e-ISSN 1873-2674).</t>
         </is>
